--- a/documents/excelData.xlsx
+++ b/documents/excelData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7504996\OneDrive - TeleTech Holdings, Inc\Projects\Automation\AutomationConcepts\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\Projects\AutomationConcepts\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -66,7 +66,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,17 +75,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -106,10 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,7 +420,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +461,7 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>44616</v>
       </c>
       <c r="D3">
@@ -511,7 +504,7 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
